--- a/data/text.xlsx
+++ b/data/text.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\root\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B23CB2A-BADC-405C-A801-ECB89DE688C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6F1ED-99FE-47DE-91D5-F42CA3CBA087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>stt</t>
   </si>
@@ -43,12 +43,6 @@
     <t>chie cao</t>
   </si>
   <si>
-    <t>can nang</t>
-  </si>
-  <si>
-    <t>gioi tinh</t>
-  </si>
-  <si>
     <t>huynh</t>
   </si>
   <si>
@@ -88,91 +82,34 @@
     <t>10K</t>
   </si>
   <si>
-    <t>12E</t>
-  </si>
-  <si>
-    <t>23H</t>
-  </si>
-  <si>
-    <t>56C</t>
-  </si>
-  <si>
-    <t>37Y</t>
-  </si>
-  <si>
-    <t>46B</t>
-  </si>
-  <si>
-    <t>27N</t>
-  </si>
-  <si>
-    <t>82M</t>
-  </si>
-  <si>
-    <t>98V</t>
-  </si>
-  <si>
-    <t>90Z</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>QN</t>
-  </si>
-  <si>
-    <t>QT</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>NU</t>
+    <t>Biinhf Thuận</t>
+  </si>
+  <si>
+    <t>Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -512,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A832FEEA-65AD-4376-A923-C06F0FEF88DA}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +460,7 @@
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,19 +482,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>192</v>
@@ -566,27 +497,21 @@
         <v>2001</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>170</v>
       </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>536</v>
@@ -595,27 +520,21 @@
         <v>2003</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>169</v>
       </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>473</v>
@@ -624,27 +543,21 @@
         <v>2001</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>168</v>
       </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>573</v>
@@ -653,27 +566,21 @@
         <v>2000</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>171</v>
       </c>
-      <c r="H5">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>373</v>
@@ -682,27 +589,21 @@
         <v>2009</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>180</v>
       </c>
-      <c r="H6">
-        <v>84</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>909</v>
@@ -711,27 +612,21 @@
         <v>2005</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>182</v>
       </c>
-      <c r="H7">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>637</v>
@@ -740,27 +635,21 @@
         <v>2004</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>176</v>
       </c>
-      <c r="H8">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>142</v>
@@ -769,27 +658,21 @@
         <v>2005</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>187</v>
       </c>
-      <c r="H9">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>648</v>
@@ -798,27 +681,21 @@
         <v>2003</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>166</v>
       </c>
-      <c r="H10">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>845</v>
@@ -827,280 +704,13 @@
         <v>2003</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>150</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>836</v>
-      </c>
-      <c r="D12">
-        <v>2006</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12">
-        <v>178</v>
-      </c>
-      <c r="H12">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>657</v>
-      </c>
-      <c r="D13">
-        <v>2010</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>170</v>
-      </c>
-      <c r="H13">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>627</v>
-      </c>
-      <c r="D14">
-        <v>1999</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <v>171</v>
-      </c>
-      <c r="H14">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>747</v>
-      </c>
-      <c r="D15">
-        <v>1998</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15">
-        <v>167</v>
-      </c>
-      <c r="H15">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>363</v>
-      </c>
-      <c r="D16">
-        <v>2002</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <v>177</v>
-      </c>
-      <c r="H16">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>849</v>
-      </c>
-      <c r="D17">
-        <v>2001</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17">
-        <v>169</v>
-      </c>
-      <c r="H17">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>859</v>
-      </c>
-      <c r="D18">
-        <v>2006</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <v>172</v>
-      </c>
-      <c r="H18">
-        <v>49</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>926</v>
-      </c>
-      <c r="D19">
-        <v>2007</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19">
-        <v>180</v>
-      </c>
-      <c r="H19">
-        <v>52</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>648</v>
-      </c>
-      <c r="D20">
-        <v>2008</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20">
-        <v>182</v>
-      </c>
-      <c r="H20">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
